--- a/Dødsårsak.xlsx
+++ b/Dødsårsak.xlsx
@@ -2393,8 +2393,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="11" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="ca392f09ec4657bc601066d7bc537d21">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="345553e69f630f0ba71e029dc9be3dcc" ns1:_="" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:element name="properties">
@@ -2415,6 +2415,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2491,6 +2492,11 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2612,7 +2618,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{108E9955-DAFF-4D5E-9888-A71E05A81E43}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E986615F-C7E3-458B-8A7F-99E0E08AB946}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Dødsårsak.xlsx
+++ b/Dødsårsak.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/Befolkning/Fødte og døde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6F849E8-C415-4416-B05C-8E8015D4CA91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{E6F849E8-C415-4416-B05C-8E8015D4CA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{682C5660-5A78-4C4D-B48D-50D139A0C0AC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="28692" yWindow="-12" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dødsårsak" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="182">
   <si>
     <t>Dødsårsak</t>
   </si>
@@ -31,9 +42,6 @@
     <t>Rang</t>
   </si>
   <si>
-    <t>Alle</t>
-  </si>
-  <si>
     <t>Dødsfall av sykdommer</t>
   </si>
   <si>
@@ -551,12 +559,30 @@
   </si>
   <si>
     <t>Mangler dødsmelding</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Covid-19</t>
+  </si>
+  <si>
+    <t>Covid-19-sykdom</t>
+  </si>
+  <si>
+    <t>Bivirkning av covid-19-vaksine</t>
+  </si>
+  <si>
+    <t>˾Covid-19-sykdom</t>
+  </si>
+  <si>
+    <t>˾˾Bivirkning av covid-19-vaksine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1390,12 +1416,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="54.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1410,10 +1442,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1421,10 +1453,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1432,10 +1464,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1443,10 +1475,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1454,10 +1486,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1465,10 +1497,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1476,10 +1508,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1487,10 +1519,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1498,10 +1530,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1509,10 +1541,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1520,10 +1552,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1531,10 +1563,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1542,10 +1574,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1553,10 +1585,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1564,10 +1596,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1575,10 +1607,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1586,10 +1618,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1597,10 +1629,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1608,10 +1640,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1619,10 +1651,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1630,10 +1662,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1641,10 +1673,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1652,10 +1684,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1663,10 +1695,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1674,10 +1706,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
         <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1685,10 +1717,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
         <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1696,10 +1728,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
         <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1707,10 +1739,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>56</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1718,10 +1750,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1729,10 +1761,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
         <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1740,10 +1772,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
         <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1751,10 +1783,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" t="s">
-        <v>64</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1762,10 +1794,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" t="s">
-        <v>66</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1773,10 +1805,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
         <v>67</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1784,10 +1816,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
         <v>69</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1795,10 +1827,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
         <v>71</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1806,10 +1838,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
         <v>73</v>
-      </c>
-      <c r="B38" t="s">
-        <v>74</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1817,10 +1849,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1828,10 +1860,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" t="s">
-        <v>78</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1839,10 +1871,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
         <v>79</v>
-      </c>
-      <c r="B41" t="s">
-        <v>80</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1850,10 +1882,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
         <v>81</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1861,10 +1893,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
         <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>84</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1872,10 +1904,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
         <v>85</v>
-      </c>
-      <c r="B44" t="s">
-        <v>86</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1883,10 +1915,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
         <v>87</v>
-      </c>
-      <c r="B45" t="s">
-        <v>88</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1894,10 +1926,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
         <v>89</v>
-      </c>
-      <c r="B46" t="s">
-        <v>90</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1905,10 +1937,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
         <v>91</v>
-      </c>
-      <c r="B47" t="s">
-        <v>92</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1916,10 +1948,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
         <v>93</v>
-      </c>
-      <c r="B48" t="s">
-        <v>94</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1927,10 +1959,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
         <v>95</v>
-      </c>
-      <c r="B49" t="s">
-        <v>96</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1938,10 +1970,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
         <v>97</v>
-      </c>
-      <c r="B50" t="s">
-        <v>98</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1949,10 +1981,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
         <v>99</v>
-      </c>
-      <c r="B51" t="s">
-        <v>100</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1960,10 +1992,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" t="s">
-        <v>102</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -1971,10 +2003,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
         <v>103</v>
-      </c>
-      <c r="B53" t="s">
-        <v>104</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -1982,10 +2014,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
         <v>105</v>
-      </c>
-      <c r="B54" t="s">
-        <v>106</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -1993,10 +2025,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
         <v>107</v>
-      </c>
-      <c r="B55" t="s">
-        <v>108</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -2004,10 +2036,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
         <v>109</v>
-      </c>
-      <c r="B56" t="s">
-        <v>110</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -2015,10 +2047,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
         <v>111</v>
-      </c>
-      <c r="B57" t="s">
-        <v>112</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -2026,10 +2058,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
         <v>113</v>
-      </c>
-      <c r="B58" t="s">
-        <v>114</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -2037,10 +2069,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" t="s">
-        <v>116</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -2048,10 +2080,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
         <v>117</v>
-      </c>
-      <c r="B60" t="s">
-        <v>118</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -2059,10 +2091,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
         <v>119</v>
-      </c>
-      <c r="B61" t="s">
-        <v>120</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -2070,10 +2102,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
         <v>121</v>
-      </c>
-      <c r="B62" t="s">
-        <v>122</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -2081,10 +2113,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
         <v>123</v>
-      </c>
-      <c r="B63" t="s">
-        <v>124</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -2092,10 +2124,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
         <v>125</v>
-      </c>
-      <c r="B64" t="s">
-        <v>126</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -2103,10 +2135,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
         <v>127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>128</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -2114,10 +2146,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
         <v>129</v>
-      </c>
-      <c r="B66" t="s">
-        <v>130</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -2125,10 +2157,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
         <v>131</v>
-      </c>
-      <c r="B67" t="s">
-        <v>132</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -2136,10 +2168,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
         <v>133</v>
-      </c>
-      <c r="B68" t="s">
-        <v>134</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -2147,10 +2179,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
         <v>135</v>
-      </c>
-      <c r="B69" t="s">
-        <v>136</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -2158,10 +2190,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
         <v>137</v>
-      </c>
-      <c r="B70" t="s">
-        <v>138</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -2169,10 +2201,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
         <v>139</v>
-      </c>
-      <c r="B71" t="s">
-        <v>140</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -2180,10 +2212,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
         <v>141</v>
-      </c>
-      <c r="B72" t="s">
-        <v>142</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -2191,10 +2223,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
         <v>143</v>
-      </c>
-      <c r="B73" t="s">
-        <v>144</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -2202,10 +2234,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
         <v>145</v>
-      </c>
-      <c r="B74" t="s">
-        <v>146</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2213,10 +2245,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
         <v>147</v>
-      </c>
-      <c r="B75" t="s">
-        <v>148</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2224,10 +2256,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
         <v>149</v>
-      </c>
-      <c r="B76" t="s">
-        <v>150</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2235,10 +2267,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" t="s">
         <v>151</v>
-      </c>
-      <c r="B77" t="s">
-        <v>152</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2246,10 +2278,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" t="s">
         <v>153</v>
-      </c>
-      <c r="B78" t="s">
-        <v>154</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2257,10 +2289,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2268,10 +2300,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2279,10 +2311,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2290,10 +2322,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2301,10 +2333,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2312,10 +2344,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B84" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2323,10 +2355,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2334,10 +2366,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2345,10 +2377,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B87" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2356,10 +2388,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B88" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2367,10 +2399,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2378,13 +2410,46 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C90">
         <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>171</v>
+      </c>
+      <c r="B91" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" t="s">
+        <v>175</v>
+      </c>
+      <c r="C93">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2393,10 +2458,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="12" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="e4a524b860cf13a8c93835716f8e4da0">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="810e635cb89f261f8aa95246a976651c" ns1:_="" ns2:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -2416,6 +2504,8 @@
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2498,6 +2588,28 @@
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildemerkelapper" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="17f1e631-7134-4ce3-8a3d-482fd88a4c57" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{cfd1b471-962e-4074-a3f5-f81efd63bd54}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a65edee0-4267-4101-9877-75c307db3846">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -2599,32 +2711,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E986615F-C7E3-458B-8A7F-99E0E08AB946}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4115A7B7-287A-4AE8-806B-7CC97296B837}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAC947BA-1F8B-489D-9904-F186FE6F8548}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB9E3BE-AA58-421E-B8F3-788A24D92AA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D087993A-EFD6-45E2-B07C-6DEFCAF599D0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EBC4FE9-0D91-4D0D-A828-82B5CBDBDBE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Dødsårsak.xlsx
+++ b/Dødsårsak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/Befolkning/Fødte og døde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{E6F849E8-C415-4416-B05C-8E8015D4CA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{682C5660-5A78-4C4D-B48D-50D139A0C0AC}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{E6F849E8-C415-4416-B05C-8E8015D4CA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{648EA18A-144E-4A9B-8211-3580614DF2EF}"/>
   <bookViews>
     <workbookView xWindow="28692" yWindow="-12" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="183">
   <si>
     <t>Dødsårsak</t>
   </si>
@@ -573,10 +573,13 @@
     <t>Bivirkning av covid-19-vaksine</t>
   </si>
   <si>
-    <t>˾Covid-19-sykdom</t>
-  </si>
-  <si>
     <t>˾˾Bivirkning av covid-19-vaksine</t>
+  </si>
+  <si>
+    <t>˾Covid-19</t>
+  </si>
+  <si>
+    <t>˾˾Covid-19-sykdom</t>
   </si>
 </sst>
 </file>
@@ -1419,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2292,7 +2295,7 @@
         <v>177</v>
       </c>
       <c r="B79" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2303,7 +2306,7 @@
         <v>178</v>
       </c>
       <c r="B80" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2314,7 +2317,7 @@
         <v>179</v>
       </c>
       <c r="B81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2471,15 +2474,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2711,6 +2705,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4115A7B7-287A-4AE8-806B-7CC97296B837}">
   <ds:schemaRefs>
@@ -2724,14 +2727,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB9E3BE-AA58-421E-B8F3-788A24D92AA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EBC4FE9-0D91-4D0D-A828-82B5CBDBDBE7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2749,4 +2744,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB9E3BE-AA58-421E-B8F3-788A24D92AA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Dødsårsak.xlsx
+++ b/Dødsårsak.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder.sharepoint.com/sites/felles-reg/Documents/Statistikk/PowerBI/Befolkning/Fødte og døde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{E6F849E8-C415-4416-B05C-8E8015D4CA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{648EA18A-144E-4A9B-8211-3580614DF2EF}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{E6F849E8-C415-4416-B05C-8E8015D4CA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44F73292-D28E-4DD0-8724-1CFCB7D9F079}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-12" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dødsårsak" sheetId="1" r:id="rId1"/>
@@ -165,12 +165,6 @@
     <t>˾˾˾Ondartet svulst i eggstokk</t>
   </si>
   <si>
-    <t>Ondartet svulst i blærehalskjertel</t>
-  </si>
-  <si>
-    <t>˾˾˾Ondartet svulst i blærehalskjertel</t>
-  </si>
-  <si>
     <t>Ondartet svulst i nyre unntatt nyrebekken</t>
   </si>
   <si>
@@ -580,6 +574,12 @@
   </si>
   <si>
     <t>˾˾Covid-19-sykdom</t>
+  </si>
+  <si>
+    <t>Ondartet svulst i prostata</t>
+  </si>
+  <si>
+    <t>˾˾˾Ondartet svulst i prostata</t>
   </si>
 </sst>
 </file>
@@ -1422,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1445,10 +1445,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1709,10 +1709,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1731,10 +1731,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1742,10 +1742,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1764,10 +1764,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1775,10 +1775,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1786,10 +1786,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1797,10 +1797,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1808,10 +1808,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1819,10 +1819,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1830,10 +1830,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1841,10 +1841,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1852,10 +1852,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1863,10 +1863,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -1874,10 +1874,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -1885,10 +1885,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -1896,10 +1896,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -1907,10 +1907,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -1929,10 +1929,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -1940,10 +1940,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -1951,10 +1951,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C48">
         <v>47</v>
@@ -1962,10 +1962,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C49">
         <v>48</v>
@@ -1973,10 +1973,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C50">
         <v>49</v>
@@ -1984,10 +1984,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -1995,10 +1995,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -2006,10 +2006,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -2017,10 +2017,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -2039,10 +2039,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -2050,10 +2050,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -2061,10 +2061,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -2072,10 +2072,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -2083,10 +2083,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -2094,10 +2094,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -2105,10 +2105,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C62">
         <v>61</v>
@@ -2116,10 +2116,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C63">
         <v>62</v>
@@ -2127,10 +2127,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C64">
         <v>63</v>
@@ -2138,10 +2138,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C65">
         <v>64</v>
@@ -2149,10 +2149,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C66">
         <v>65</v>
@@ -2160,10 +2160,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C67">
         <v>66</v>
@@ -2171,10 +2171,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C68">
         <v>67</v>
@@ -2182,10 +2182,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C69">
         <v>68</v>
@@ -2193,10 +2193,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C70">
         <v>69</v>
@@ -2204,10 +2204,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -2215,10 +2215,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -2226,10 +2226,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C73">
         <v>72</v>
@@ -2237,10 +2237,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C74">
         <v>73</v>
@@ -2248,10 +2248,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C75">
         <v>74</v>
@@ -2259,10 +2259,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C76">
         <v>75</v>
@@ -2270,10 +2270,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C77">
         <v>76</v>
@@ -2281,10 +2281,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C78">
         <v>77</v>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B79" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C79">
         <v>78</v>
@@ -2303,10 +2303,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C80">
         <v>79</v>
@@ -2314,10 +2314,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B81" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C81">
         <v>80</v>
@@ -2325,10 +2325,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C82">
         <v>81</v>
@@ -2336,10 +2336,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B83" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -2347,10 +2347,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C84">
         <v>83</v>
@@ -2358,10 +2358,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C85">
         <v>84</v>
@@ -2369,10 +2369,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C86">
         <v>85</v>
@@ -2380,10 +2380,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C87">
         <v>86</v>
@@ -2391,10 +2391,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C88">
         <v>87</v>
@@ -2402,10 +2402,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C89">
         <v>88</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B90" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C90">
         <v>89</v>
@@ -2424,10 +2424,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B91" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C91">
         <v>90</v>
@@ -2435,10 +2435,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C92">
         <v>91</v>
@@ -2446,10 +2446,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C93">
         <v>92</v>
@@ -2461,21 +2461,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
@@ -2500,6 +2487,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2589,6 +2577,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
@@ -2705,6 +2698,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="712f17e0-2077-4e3f-8ea2-c75d02de46ee">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2715,19 +2721,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4115A7B7-287A-4AE8-806B-7CC97296B837}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EBC4FE9-0D91-4D0D-A828-82B5CBDBDBE7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98372B39-BBF5-4633-9C4F-087A058AD886}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2746,6 +2740,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4115A7B7-287A-4AE8-806B-7CC97296B837}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
+    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EB9E3BE-AA58-421E-B8F3-788A24D92AA9}">
   <ds:schemaRefs>

--- a/Dødsårsak.xlsx
+++ b/Dødsårsak.xlsx
@@ -2474,8 +2474,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="15" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="5d2df7d88173eed2472aac31f58c6f9b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="020ddd7b595e894bbf41ffe05b9a61ec" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005BAF6522D6B39A4F809F4AA1655E5CD6" ma:contentTypeVersion="16" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="a0fb7c36fac9088a608ed981e0aa11fd">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="712f17e0-2077-4e3f-8ea2-c75d02de46ee" xmlns:ns3="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b99157ba4c61b01c0cdc0040d5e0220" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
     <xsd:import namespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
@@ -2500,6 +2500,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2589,6 +2590,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4c1e125b-b772-4d2d-8af8-eec310c9bc7c" elementFormDefault="qualified">
@@ -2727,23 +2733,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EBC4FE9-0D91-4D0D-A828-82B5CBDBDBE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="712f17e0-2077-4e3f-8ea2-c75d02de46ee"/>
-    <ds:schemaRef ds:uri="4c1e125b-b772-4d2d-8af8-eec310c9bc7c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA43AAF0-1299-4B47-A414-5FF1BAF8B90E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
